--- a/CU/CU투입비예정.xlsx
+++ b/CU/CU투입비예정.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gas00\MathTool\CU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB16F5A-DD7C-40F9-8C87-AC616D85F6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FC7139-B6FB-45FA-8BE7-C27FBEC94364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8EE16EA-488C-4F37-9F89-6A41A9D5B8B5}"/>
+    <workbookView xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{F8EE16EA-488C-4F37-9F89-6A41A9D5B8B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="투입금액산정중" sheetId="1" r:id="rId1"/>
+    <sheet name="매출금액검토중" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">매출금액검토중!$A$1:$F$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">투입금액산정중!$A$1:$G$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>권리금</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -118,6 +120,118 @@
   </si>
   <si>
     <t xml:space="preserve"> 이론상 총투자금액이 -300,000만원이면 계산이 맞는지?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출원가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점포매출이익</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본부장려금등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출이익 (1 - 2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총수입 (4 + 5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업이익 (6 - 7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업이익잔액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 겨울것이나. 여름이나..큰차이가. 없이. 꾸준하게. 장사가. 되고. 있어요
+폐기.는. 더. 줄일수가. 있는데. 
+물건을. 여유있게. 주문해서. 야채를. 폐기찍고. 먹고. 있어서. 많이. 나왔는데요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 직장. 생활. 한 사람. 보다. 괜찮을꺼예요. 스트레스.받는것도. 없고. 알바. 도. 잘구해지고. 그래요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 120일..이전것은..볼수가. 없어요. 자료가. 사라지거든요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 사업하셔도. 손해는. 없을꺼예요. 코로나. 끝나고. 좋아지고. 있어요...
+다. 단골이구요 밑에. 국제특송. 택비.3개. 회사. 있고. 뒤에. 정비업소. 있고. 해서. 꾸준해요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 객수는 .160에서. 200명정도. 오세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 전에. 슈퍼. 할때도. 괜찮았어요. 개인편의점. 하셔도. 괜찮아요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 그때도. 장부상. 600만원. 남았거든요. 물건. 떼는게. 너무. 힘들어해서. 바꾼거예요. 남편이. 라이브카페하느라. 밤에. 일하고. 낮에. 자야하다보니. 도매상은. 4시에. 문을..닫거든요. 그게. 힘들어서.씨유에서. 장려금. 4천. 받고. 바꾼거였거든요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 이때정산금보세요. 4천5백들어온거구요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 2027년7월에. 지에스랑. 하면. 거기서도. 5천. 달라하면. 줄꺼예요. 
+서로. 뺏고. 뺏으려하다보니. 가맹자리도. 이젠. 없어서. 부르는. 가격줄수밖에. 없다. 했어요. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 자리싸움. 하느라. 그래요. 될만한자리는. 이제. 없데요. 다들. 본사들이 ㅜ사들인데요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -125,8 +239,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -352,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +515,24 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -738,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ED15A5-222B-4CCF-BB82-89B413873988}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -904,29 +1037,29 @@
       <c r="G10" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -984,4 +1117,411 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7281217-D0C6-4922-8543-EF7CE8DCBFC9}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="16" customWidth="1"/>
+    <col min="4" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2">
+        <v>37612635</v>
+      </c>
+      <c r="D3" s="2">
+        <v>37418427</v>
+      </c>
+      <c r="E3" s="2">
+        <v>37367353</v>
+      </c>
+      <c r="F3" s="2">
+        <v>32461161</v>
+      </c>
+      <c r="H3" s="17">
+        <v>45348</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1775480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <v>25667304</v>
+      </c>
+      <c r="D4" s="2">
+        <v>25753916</v>
+      </c>
+      <c r="E4" s="2">
+        <v>25520685</v>
+      </c>
+      <c r="F4" s="2">
+        <v>22606992</v>
+      </c>
+      <c r="H4" s="17">
+        <v>45347</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1550470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11945331</v>
+      </c>
+      <c r="D5" s="2">
+        <v>11664511</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11846668</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9854169</v>
+      </c>
+      <c r="H5" s="17">
+        <v>45351</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1400650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8361732</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8165158</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8292668</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6897918</v>
+      </c>
+      <c r="H6" s="17">
+        <v>45352</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1565630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
+        <v>367656</v>
+      </c>
+      <c r="D7" s="2">
+        <v>290824</v>
+      </c>
+      <c r="E7" s="2">
+        <v>206988</v>
+      </c>
+      <c r="F7" s="2">
+        <v>309262</v>
+      </c>
+      <c r="H7" s="17">
+        <v>45322</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1845890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8729388</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8455982</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8499656</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7207180</v>
+      </c>
+      <c r="H8" s="17">
+        <v>45656</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1673110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-1282797</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1308942</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1273362</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-1479692</v>
+      </c>
+      <c r="H9" s="17">
+        <v>45621</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1583210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10012185</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7147040</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7226294</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8686872</v>
+      </c>
+      <c r="H10" s="17">
+        <v>45613</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1618110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3021810</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-2865145</v>
+      </c>
+      <c r="E11" s="2">
+        <v>79254</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2391574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="6" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
 </file>